--- a/Үйірме туралы толық мәлімет.xlsx
+++ b/Үйірме туралы толық мәлімет.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b.shymkentbay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3184414-FC11-4DEF-8B3A-6625CC004A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -66,32 +65,150 @@
     <t>С.Нұрмағамбетов атындағы №72 ЖОББМ</t>
   </si>
   <si>
-    <t>1«А»</t>
-  </si>
-  <si>
     <t xml:space="preserve">Қатысатын үйірме түрі </t>
   </si>
   <si>
-    <t>15.02.1988ж</t>
-  </si>
-  <si>
-    <t>Жуманова Гульзат Пердебаевна</t>
-  </si>
-  <si>
-    <t>Волейбол үйірмесі</t>
-  </si>
-  <si>
-    <t>72 ЖОББМ</t>
-  </si>
-  <si>
-    <t>Ақысыз</t>
+    <t>Баймахамбет Нұралхан</t>
+  </si>
+  <si>
+    <t>3 "Б"</t>
+  </si>
+  <si>
+    <t>31.03.17</t>
+  </si>
+  <si>
+    <t>Дзюдо</t>
+  </si>
+  <si>
+    <t>72 жоббм</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ақылы </t>
+  </si>
+  <si>
+    <t>Бауыржанқызы Балауса</t>
+  </si>
+  <si>
+    <t>26.05.17</t>
+  </si>
+  <si>
+    <t>хор</t>
+  </si>
+  <si>
+    <t>ақысыз</t>
+  </si>
+  <si>
+    <t>Ералы Бекасыл</t>
+  </si>
+  <si>
+    <t>06.07.17</t>
+  </si>
+  <si>
+    <t>футбол</t>
+  </si>
+  <si>
+    <t>Ерік Ажар</t>
+  </si>
+  <si>
+    <t>22.04.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> би </t>
+  </si>
+  <si>
+    <t>Балауса би</t>
+  </si>
+  <si>
+    <t>Жетпіс Ибраһим</t>
+  </si>
+  <si>
+    <t>18.11.17</t>
+  </si>
+  <si>
+    <t>Маратқвзв Айкенже</t>
+  </si>
+  <si>
+    <t>20.07.17</t>
+  </si>
+  <si>
+    <t>көркем сурет,керамика</t>
+  </si>
+  <si>
+    <t>Gulshem-Aisha студиясы</t>
+  </si>
+  <si>
+    <t>Мұратбек  Мұқағали</t>
+  </si>
+  <si>
+    <t>18.11.16</t>
+  </si>
+  <si>
+    <t>Ануш</t>
+  </si>
+  <si>
+    <t>Нұрлыбек Меруерт Талғатқызы</t>
+  </si>
+  <si>
+    <t>01.01.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">би </t>
+  </si>
+  <si>
+    <t>58 STARS</t>
+  </si>
+  <si>
+    <t>Садықхан Абдурахман Альжанұлы</t>
+  </si>
+  <si>
+    <t>25.04.17</t>
+  </si>
+  <si>
+    <t>Турдалиева Мухида Нурлановна</t>
+  </si>
+  <si>
+    <t>02.07.17</t>
+  </si>
+  <si>
+    <t>Кисса үйірме,сурет салу</t>
+  </si>
+  <si>
+    <t>ақылы,ақысыз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Унтықбай Жандарбек Дарханұлы </t>
+  </si>
+  <si>
+    <t>16.03.17</t>
+  </si>
+  <si>
+    <t>домбыра</t>
+  </si>
+  <si>
+    <t>Өнерпаз</t>
+  </si>
+  <si>
+    <t>Шайга-Ахмет Раяна Мамырханқызы</t>
+  </si>
+  <si>
+    <t>30.12.17</t>
+  </si>
+  <si>
+    <t>Ажар би студиясы</t>
+  </si>
+  <si>
+    <t>ақылы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,26 +240,37 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -195,39 +323,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -237,12 +351,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -519,305 +664,458 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H2" s="14" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="13">
+        <v>170331502032</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="13">
+        <v>170526601784</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="8">
-        <v>880234567889</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="16">
+        <v>170706503663</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="18">
+        <v>170422600816</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="18">
+        <v>171118503263</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="18">
+        <v>170720603993</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="18">
+        <v>161118502372</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="18">
+        <v>170101601228</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="18">
+        <v>170425503287</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="18">
+        <v>170702603320</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="18">
+        <v>170316505431</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="K15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="18">
+        <v>171230602220</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="K16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1"/>
@@ -830,11 +1128,11 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+    <row r="18" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1"/>
@@ -847,11 +1145,11 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1"/>
@@ -864,11 +1162,11 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1"/>
@@ -881,11 +1179,11 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+    <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1"/>
@@ -898,11 +1196,11 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
+    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1"/>
@@ -915,11 +1213,11 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+    <row r="23" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
         <v>19</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="1"/>
@@ -932,11 +1230,11 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
+    <row r="24" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1"/>
@@ -949,11 +1247,11 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+    <row r="25" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <v>21</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="1"/>
@@ -966,11 +1264,11 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
+    <row r="26" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <v>22</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1"/>
@@ -983,11 +1281,11 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+    <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>23</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="1"/>
@@ -1000,11 +1298,11 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
+    <row r="28" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
         <v>24</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1"/>
@@ -1017,11 +1315,11 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="4">
+    <row r="29" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
         <v>25</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="1"/>
@@ -1034,11 +1332,11 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
+    <row r="30" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <v>26</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1"/>
@@ -1051,11 +1349,11 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+    <row r="31" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
         <v>27</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="1"/>
@@ -1069,8 +1367,12 @@
       <c r="L31" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:L4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:L4"/>
   <mergeCells count="12">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
@@ -1079,10 +1381,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Үйірме туралы толық мәлімет.xlsx
+++ b/Үйірме туралы толық мәлімет.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
   <si>
     <t>№</t>
   </si>
@@ -198,17 +198,84 @@
   </si>
   <si>
     <t>ақылы</t>
+  </si>
+  <si>
+    <t>Арысбек Кәусар</t>
+  </si>
+  <si>
+    <t>04.11.17</t>
+  </si>
+  <si>
+    <t>Асқар Айым</t>
+  </si>
+  <si>
+    <t>24.09.17</t>
+  </si>
+  <si>
+    <t>Балтабай Бексұлтан</t>
+  </si>
+  <si>
+    <t>02.08.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бахтияр Айзере </t>
+  </si>
+  <si>
+    <t>28.08.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беймерза Ерке </t>
+  </si>
+  <si>
+    <t>27.04.16</t>
+  </si>
+  <si>
+    <t>Бекбосын Омар</t>
+  </si>
+  <si>
+    <t>12.04.17</t>
+  </si>
+  <si>
+    <t>Мейрбек Сұлтанбек</t>
+  </si>
+  <si>
+    <t>16.02.17</t>
+  </si>
+  <si>
+    <t>Мергенбай Аян</t>
+  </si>
+  <si>
+    <t>16.06.17</t>
+  </si>
+  <si>
+    <t>Парпибекова Ақерке Давронбекқызы</t>
+  </si>
+  <si>
+    <t>13.11.17</t>
+  </si>
+  <si>
+    <t>Рашит Диас Бекжанұлы</t>
+  </si>
+  <si>
+    <t>25.12.17</t>
+  </si>
+  <si>
+    <t>Төлеш  Альжан  Рысбекұлы</t>
+  </si>
+  <si>
+    <t>27.03.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +328,18 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
@@ -323,71 +402,147 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Финансовый 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -665,13 +820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
@@ -684,208 +839,190 @@
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H2" s="4" t="s">
+    <row r="2" spans="2:12">
+      <c r="H2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="2:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="2:12" ht="27.6" customHeight="1">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+    <row r="4" spans="2:12">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" ht="30">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13">
-        <v>170331502032</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="42">
+        <v>171104601693</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" ht="30">
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="13">
-        <v>170526601784</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="D6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="22">
+        <v>170924600402</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" ht="30">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="16">
-        <v>170706503663</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9">
+        <v>170331502032</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="30">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="18">
-        <v>170422600816</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="25">
+        <v>170802504990</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="30">
       <c r="B9" s="3">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="18">
-        <v>171118503263</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9">
+        <v>170526601784</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
         <v>17</v>
@@ -894,119 +1031,101 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="30">
       <c r="B10" s="3">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="18">
-        <v>170720603993</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>33</v>
+      <c r="D10" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="28">
+        <v>170828602427</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="I10" s="8"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="30">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="18">
-        <v>161118502372</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1"/>
+      <c r="D11" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="31">
+        <v>161117600169</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="30">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="18">
-        <v>170101601228</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>40</v>
+      <c r="D12" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="28">
+        <v>170412501262</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="30">
       <c r="B13" s="3">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="18">
-        <v>170425503287</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="D13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="12">
+        <v>170706503663</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="1"/>
@@ -1018,288 +1137,412 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="30">
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="18">
-        <v>170702603320</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>46</v>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="14">
+        <v>170422600816</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="12" t="s">
-        <v>47</v>
+      <c r="I14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="30">
+      <c r="B15" s="5">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="18">
-        <v>170316505431</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="14">
+        <v>171118503263</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+    <row r="16" spans="2:12" ht="30">
+      <c r="B16" s="5">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="18">
-        <v>171230602220</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>54</v>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="14">
+        <v>170720603993</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="12" t="s">
-        <v>28</v>
+      <c r="I16" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="30">
       <c r="B17" s="3">
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="33">
+        <v>170216502087</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>70</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="30">
       <c r="B18" s="3">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="33">
+        <v>170616500719</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+    <row r="19" spans="2:12" ht="30">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="14">
+        <v>161118502372</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="K19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="30">
+      <c r="B20" s="5">
         <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="14">
+        <v>170101601228</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="30">
       <c r="B21" s="3">
         <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="36">
+        <v>171113602738</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="30">
       <c r="B22" s="3">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="D22" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="36">
+        <v>171225502960</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>76</v>
+      </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+    <row r="23" spans="2:12" ht="30">
+      <c r="B23" s="5">
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="14">
+        <v>170425503287</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="K23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="30">
+      <c r="B24" s="5">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="14">
+        <v>170702603320</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="30">
       <c r="B25" s="3">
         <v>21</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="D25" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="39">
+        <v>170327501260</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="30">
       <c r="B26" s="3">
         <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="D26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="14">
+        <v>170316505431</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="K26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="30">
+      <c r="B27" s="5">
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="D27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="14">
+        <v>171230602220</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="K27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="30">
+      <c r="B28" s="5">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1315,7 +1558,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="30">
       <c r="B29" s="3">
         <v>25</v>
       </c>
@@ -1332,7 +1575,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="30">
       <c r="B30" s="3">
         <v>26</v>
       </c>
@@ -1349,8 +1592,8 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+    <row r="31" spans="2:12" ht="30">
+      <c r="B31" s="5">
         <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1366,9 +1609,200 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
+    <row r="32" spans="2:12" ht="30">
+      <c r="B32" s="5">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="2:12" ht="30">
+      <c r="B33" s="3">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="2:12" ht="30">
+      <c r="B34" s="3">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="2:12" ht="30">
+      <c r="B35" s="5">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="2:12" ht="30">
+      <c r="B36" s="5">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="2:12" ht="30">
+      <c r="B37" s="3">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="2:12" ht="30">
+      <c r="B38" s="3">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="2:12" ht="30">
+      <c r="B39" s="5">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="2:12" ht="30">
+      <c r="B40" s="5">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="2:12" ht="30">
+      <c r="B41" s="3">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="2:12" ht="30">
+      <c r="B42" s="3">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="B3:L4"/>
   <mergeCells count="12">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="C3:C4"/>
@@ -1377,10 +1811,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
